--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vcan-Selp.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vcan-Selp.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>7.172093</v>
+        <v>0.01675466666666667</v>
       </c>
       <c r="H2">
-        <v>21.516279</v>
+        <v>0.050264</v>
       </c>
       <c r="I2">
-        <v>0.07357387076805701</v>
+        <v>0.0001854906931657378</v>
       </c>
       <c r="J2">
-        <v>0.07357387076805701</v>
+        <v>0.0001854906931657378</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.450162</v>
+        <v>1.343359</v>
       </c>
       <c r="N2">
-        <v>79.350486</v>
+        <v>4.030077</v>
       </c>
       <c r="O2">
-        <v>0.9821351879331711</v>
+        <v>0.736296379391111</v>
       </c>
       <c r="P2">
-        <v>0.9821351879331711</v>
+        <v>0.7362963793911109</v>
       </c>
       <c r="Q2">
-        <v>189.703021729066</v>
+        <v>0.02250753225866667</v>
       </c>
       <c r="R2">
-        <v>1707.327195561594</v>
+        <v>0.202567790328</v>
       </c>
       <c r="S2">
-        <v>0.07225948739375651</v>
+        <v>0.0001365761257886802</v>
       </c>
       <c r="T2">
-        <v>0.07225948739375651</v>
+        <v>0.0001365761257886802</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>7.172093</v>
+        <v>0.01675466666666667</v>
       </c>
       <c r="H3">
-        <v>21.516279</v>
+        <v>0.050264</v>
       </c>
       <c r="I3">
-        <v>0.07357387076805701</v>
+        <v>0.0001854906931657378</v>
       </c>
       <c r="J3">
-        <v>0.07357387076805701</v>
+        <v>0.0001854906931657378</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.965802</v>
       </c>
       <c r="O3">
-        <v>0.01195390446349922</v>
+        <v>0.1764523396969075</v>
       </c>
       <c r="P3">
-        <v>0.01195390446349922</v>
+        <v>0.1764523396969075</v>
       </c>
       <c r="Q3">
-        <v>2.308940587862</v>
+        <v>0.005393896858666667</v>
       </c>
       <c r="R3">
-        <v>20.780465290758</v>
+        <v>0.048545071728</v>
       </c>
       <c r="S3">
-        <v>0.0008794950221711915</v>
+        <v>3.273026680109559E-05</v>
       </c>
       <c r="T3">
-        <v>0.0008794950221711916</v>
+        <v>3.273026680109559E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>7.172093</v>
+        <v>0.01675466666666667</v>
       </c>
       <c r="H4">
-        <v>21.516279</v>
+        <v>0.050264</v>
       </c>
       <c r="I4">
-        <v>0.07357387076805701</v>
+        <v>0.0001854906931657378</v>
       </c>
       <c r="J4">
-        <v>0.07357387076805701</v>
+        <v>0.0001854906931657378</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,22 +682,22 @@
         <v>0.477565</v>
       </c>
       <c r="O4">
-        <v>0.005910907603329674</v>
+        <v>0.08725128091198156</v>
       </c>
       <c r="P4">
-        <v>0.005910907603329674</v>
+        <v>0.08725128091198156</v>
       </c>
       <c r="Q4">
-        <v>1.141713531181667</v>
+        <v>0.002667147462222223</v>
       </c>
       <c r="R4">
-        <v>10.275421780635</v>
+        <v>0.02400432716</v>
       </c>
       <c r="S4">
-        <v>0.000434888352129303</v>
+        <v>1.618430057596197E-05</v>
       </c>
       <c r="T4">
-        <v>0.000434888352129303</v>
+        <v>1.618430057596196E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>269.188431</v>
       </c>
       <c r="I5">
-        <v>0.9204767624852804</v>
+        <v>0.9933938536206305</v>
       </c>
       <c r="J5">
-        <v>0.9204767624852804</v>
+        <v>0.9933938536206304</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.450162</v>
+        <v>1.343359</v>
       </c>
       <c r="N5">
-        <v>79.350486</v>
+        <v>4.030077</v>
       </c>
       <c r="O5">
-        <v>0.9821351879331711</v>
+        <v>0.736296379391111</v>
       </c>
       <c r="P5">
-        <v>0.9821351879331711</v>
+        <v>0.7362963793911109</v>
       </c>
       <c r="Q5">
-        <v>2373.359202825274</v>
+        <v>120.538900493243</v>
       </c>
       <c r="R5">
-        <v>21360.23282542747</v>
+        <v>1084.850104439187</v>
       </c>
       <c r="S5">
-        <v>0.9040326181115979</v>
+        <v>0.7314322977302535</v>
       </c>
       <c r="T5">
-        <v>0.9040326181115979</v>
+        <v>0.7314322977302534</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>269.188431</v>
       </c>
       <c r="I6">
-        <v>0.9204767624852804</v>
+        <v>0.9933938536206305</v>
       </c>
       <c r="J6">
-        <v>0.9204767624852804</v>
+        <v>0.9933938536206304</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.965802</v>
       </c>
       <c r="O6">
-        <v>0.01195390446349922</v>
+        <v>0.1764523396969075</v>
       </c>
       <c r="P6">
-        <v>0.01195390446349922</v>
+        <v>0.1764523396969075</v>
       </c>
       <c r="Q6">
         <v>28.88696944851799</v>
@@ -818,10 +818,10 @@
         <v>259.982725036662</v>
       </c>
       <c r="S6">
-        <v>0.01100329127962011</v>
+        <v>0.1752866697118874</v>
       </c>
       <c r="T6">
-        <v>0.01100329127962011</v>
+        <v>0.1752866697118874</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>269.188431</v>
       </c>
       <c r="I7">
-        <v>0.9204767624852804</v>
+        <v>0.9933938536206305</v>
       </c>
       <c r="J7">
-        <v>0.9204767624852804</v>
+        <v>0.9933938536206304</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,10 +868,10 @@
         <v>0.477565</v>
       </c>
       <c r="O7">
-        <v>0.005910907603329674</v>
+        <v>0.08725128091198156</v>
       </c>
       <c r="P7">
-        <v>0.005910907603329674</v>
+        <v>0.08725128091198156</v>
       </c>
       <c r="Q7">
         <v>14.28388589450167</v>
@@ -880,10 +880,10 @@
         <v>128.554973050515</v>
       </c>
       <c r="S7">
-        <v>0.005440853094062527</v>
+        <v>0.08667488617848952</v>
       </c>
       <c r="T7">
-        <v>0.005440853094062527</v>
+        <v>0.08667488617848951</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5799533333333333</v>
+        <v>0.5799533333333334</v>
       </c>
       <c r="H8">
         <v>1.73986</v>
       </c>
       <c r="I8">
-        <v>0.005949366746662453</v>
+        <v>0.006420655686203657</v>
       </c>
       <c r="J8">
-        <v>0.005949366746662453</v>
+        <v>0.006420655686203655</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.450162</v>
+        <v>1.343359</v>
       </c>
       <c r="N8">
-        <v>79.350486</v>
+        <v>4.030077</v>
       </c>
       <c r="O8">
-        <v>0.9821351879331711</v>
+        <v>0.736296379391111</v>
       </c>
       <c r="P8">
-        <v>0.9821351879331711</v>
+        <v>0.7362963793911109</v>
       </c>
       <c r="Q8">
-        <v>15.33985961910667</v>
+        <v>0.7790855299133336</v>
       </c>
       <c r="R8">
-        <v>138.05873657196</v>
+        <v>7.011769769220002</v>
       </c>
       <c r="S8">
-        <v>0.005843082427816688</v>
+        <v>0.004727505535068702</v>
       </c>
       <c r="T8">
-        <v>0.005843082427816687</v>
+        <v>0.0047275055350687</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5799533333333333</v>
+        <v>0.5799533333333334</v>
       </c>
       <c r="H9">
         <v>1.73986</v>
       </c>
       <c r="I9">
-        <v>0.005949366746662453</v>
+        <v>0.006420655686203657</v>
       </c>
       <c r="J9">
-        <v>0.005949366746662453</v>
+        <v>0.006420655686203655</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,22 +992,22 @@
         <v>0.965802</v>
       </c>
       <c r="O9">
-        <v>0.01195390446349922</v>
+        <v>0.1764523396969075</v>
       </c>
       <c r="P9">
-        <v>0.01195390446349922</v>
+        <v>0.1764523396969075</v>
       </c>
       <c r="Q9">
-        <v>0.1867066964133333</v>
+        <v>0.1867066964133334</v>
       </c>
       <c r="R9">
         <v>1.68036026772</v>
       </c>
       <c r="S9">
-        <v>7.111816170792214E-05</v>
+        <v>0.001132939718218888</v>
       </c>
       <c r="T9">
-        <v>7.111816170792214E-05</v>
+        <v>0.001132939718218888</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5799533333333333</v>
+        <v>0.5799533333333334</v>
       </c>
       <c r="H10">
         <v>1.73986</v>
       </c>
       <c r="I10">
-        <v>0.005949366746662453</v>
+        <v>0.006420655686203657</v>
       </c>
       <c r="J10">
-        <v>0.005949366746662453</v>
+        <v>0.006420655686203655</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,22 +1054,22 @@
         <v>0.477565</v>
       </c>
       <c r="O10">
-        <v>0.005910907603329674</v>
+        <v>0.08725128091198156</v>
       </c>
       <c r="P10">
-        <v>0.005910907603329674</v>
+        <v>0.08725128091198156</v>
       </c>
       <c r="Q10">
-        <v>0.09232180454444446</v>
+        <v>0.09232180454444447</v>
       </c>
       <c r="R10">
-        <v>0.8308962409</v>
+        <v>0.8308962409000001</v>
       </c>
       <c r="S10">
-        <v>3.516615713784382E-05</v>
+        <v>0.000560210432916067</v>
       </c>
       <c r="T10">
-        <v>3.516615713784382E-05</v>
+        <v>0.0005602104329160668</v>
       </c>
     </row>
   </sheetData>
